--- a/CCOMEnrollment/university.Web/一键导入模板.xlsx
+++ b/CCOMEnrollment/university.Web/一键导入模板.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D92B9DA2-C05D-4E3B-A982-FE7AB56D3CBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10185" xr2:uid="{19C19F76-B20F-4394-8094-29A860C31484}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,7 +460,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4C18EE-290F-47F2-96BB-4D45E729E844}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
